--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Fall.102519.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Fall.102519.xlsx_with_dialog_acts.xlsx
@@ -1471,12 +1471,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1965,12 +1965,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2079,12 +2079,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2425,12 +2425,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3379,12 +3379,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3953,12 +3953,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4029,12 +4029,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4561,12 +4561,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4637,12 +4637,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4751,12 +4751,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5131,12 +5131,12 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5169,12 +5169,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5435,12 +5435,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5625,12 +5625,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6005,12 +6005,12 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6769,12 +6769,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -7191,12 +7191,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7457,12 +7457,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7723,12 +7723,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8221,12 +8221,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8415,12 +8415,12 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8605,12 +8605,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8913,12 +8913,12 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8951,12 +8951,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9031,12 +9031,12 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9183,12 +9183,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9297,12 +9297,12 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9449,12 +9449,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9677,12 +9677,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9943,12 +9943,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9981,12 +9981,12 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10057,12 +10057,12 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10327,12 +10327,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10441,12 +10441,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11965,12 +11965,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12041,12 +12041,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12117,12 +12117,12 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12421,12 +12421,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12459,12 +12459,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12573,12 +12573,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12877,12 +12877,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13067,12 +13067,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13523,12 +13523,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13561,12 +13561,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13713,12 +13713,12 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13903,12 +13903,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13979,12 +13979,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14131,12 +14131,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14245,12 +14245,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14283,12 +14283,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -14853,12 +14853,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15233,12 +15233,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15389,12 +15389,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15465,12 +15465,12 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15921,12 +15921,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17153,12 +17153,12 @@
       <c r="H438" t="inlineStr"/>
       <c r="I438" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17761,12 +17761,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18293,12 +18293,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18369,12 +18369,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18597,12 +18597,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19667,12 +19667,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19857,12 +19857,12 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19933,12 +19933,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20199,12 +20199,12 @@
       <c r="H518" t="inlineStr"/>
       <c r="I518" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20545,12 +20545,12 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21153,12 +21153,12 @@
       <c r="H543" t="inlineStr"/>
       <c r="I543" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21267,12 +21267,12 @@
       <c r="H546" t="inlineStr"/>
       <c r="I546" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21495,12 +21495,12 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -21533,12 +21533,12 @@
       <c r="H553" t="inlineStr"/>
       <c r="I553" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21609,12 +21609,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21689,12 +21689,12 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21727,12 +21727,12 @@
       <c r="H558" t="inlineStr"/>
       <c r="I558" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21765,12 +21765,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21879,12 +21879,12 @@
       <c r="H562" t="inlineStr"/>
       <c r="I562" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21993,12 +21993,12 @@
       <c r="H565" t="inlineStr"/>
       <c r="I565" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22757,12 +22757,12 @@
       <c r="H585" t="inlineStr"/>
       <c r="I585" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23027,12 +23027,12 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>fc</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Conventional-closing</t>
         </is>
       </c>
     </row>
